--- a/STB/CSTC.xlsx
+++ b/STB/CSTC.xlsx
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="14">
@@ -4814,7 +4814,7 @@
         <v>9.16</v>
       </c>
       <c r="BZ21" t="n">
-        <v>6.64</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="22">
@@ -5500,7 +5500,7 @@
         <v>12.77</v>
       </c>
       <c r="BZ24" t="n">
-        <v>4.19</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="25">
@@ -5738,7 +5738,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="BZ25" t="n">
-        <v>6.62</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="26">
@@ -8242,7 +8242,7 @@
         <v>-0.02</v>
       </c>
       <c r="BZ37" t="n">
-        <v>1.86</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="38">
